--- a/src/main/webapp/template/测试案例模版.xlsx
+++ b/src/main/webapp/template/测试案例模版.xlsx
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
-  <si>
-    <t>元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>输入key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,19 +38,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sss</t>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dfzq.winner:id/icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>操作(send,click,swap)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(id,xpath,context,px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素(操作元素)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +93,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,12 +128,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,17 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.25" style="1" customWidth="1"/>
@@ -457,82 +469,46 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="D2" s="1">
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>